--- a/uk_truck_tyre_fitters_FINAL.xlsx
+++ b/uk_truck_tyre_fitters_FINAL.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UK Truck Tyre Fitters" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UK Truck Tyre Fitters'!$A$1:$N$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UK Truck Tyre Fitters'!$A$1:$N$173</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -704,34 +704,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bush Tyres</t>
+          <t>ATS Euromaster Commercial</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.bushtyres.co.uk/</t>
+          <t>https://www.atseuromaster.co.uk/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>08001383455</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>attleborough@bushtyres.co.uk</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>Large</t>
@@ -764,12 +752,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kirkby Tyres</t>
+          <t>National Tyres Commercial</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.kirkbytyres.co.uk/</t>
+          <t>https://www.national.co.uk/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -812,22 +800,30 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Stapleton's Tyre Services</t>
+          <t>Micheldever Fleet Solutions</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.stapleton-tyres.co.uk/</t>
+          <t>https://www.micheldeverfleetsolutions.co.uk/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mfs@micheldever.co.uk</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>Large</t>
@@ -860,12 +856,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Michelin Truck UK</t>
+          <t>Bush Tyres</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://business.michelin.co.uk/</t>
+          <t>https://www.bushtyres.co.uk/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -875,13 +871,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05523534366</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>08001383455</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>attleborough@bushtyres.co.uk</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout, Retreading</t>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -916,30 +916,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bridgestone Commercial UK</t>
+          <t>Protyre Commercial</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.bridgestone.co.uk/</t>
+          <t>https://www.protyre.co.uk/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>026465167521</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Retreading</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>Large</t>
@@ -972,30 +964,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Continental Truck UK</t>
+          <t>Kirkby Tyres</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.continental-tyres.co.uk/</t>
+          <t>https://www.kirkbytyres.co.uk/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>05577696917</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Retreading</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Large</t>
@@ -1028,12 +1012,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Goodyear Truck UK</t>
+          <t>Stapleton's Tyre Services</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.goodyear.eu/en_gb/</t>
+          <t>https://www.stapleton-tyres.co.uk/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1076,22 +1060,30 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pirelli Commercial UK</t>
+          <t>Michelin Truck UK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.pirelli.com/tyres/en-gb/</t>
+          <t>https://business.michelin.co.uk/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>05523534366</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout, Retreading</t>
+        </is>
+      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>Large</t>
@@ -1124,22 +1116,30 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hankook Truck UK</t>
+          <t>Bridgestone Commercial UK</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.hankooktire.com/uk/</t>
+          <t>https://www.bridgestone.co.uk/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>026465167521</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Retreading</t>
+        </is>
+      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Large</t>
@@ -1172,40 +1172,48 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>247 Mobile Truck Tyres</t>
+          <t>Continental Truck UK</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.247mobiletrucktyres.co.uk/</t>
+          <t>https://www.continental-tyres.co.uk/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>05577696917</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Retreading</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1220,12 +1228,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fleet Tyre Group</t>
+          <t>Goodyear Truck UK</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.fleet-tyres.co.uk/</t>
+          <t>https://www.goodyear.eu/en_gb/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1236,24 +1244,24 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1268,12 +1276,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kingsway Tyres</t>
+          <t>Pirelli Commercial UK</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.kingswaytyres.com/</t>
+          <t>https://www.pirelli.com/tyres/en-gb/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1284,24 +1292,24 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1316,12 +1324,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lodge Tyre</t>
+          <t>Hankook Truck UK</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.lodgetyre.com/</t>
+          <t>https://www.hankooktire.com/uk/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1332,24 +1340,24 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1364,52 +1372,40 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Northern Commercials</t>
+          <t>Yokohama Commercial UK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.northerncommercials.co.uk/</t>
+          <t>https://www.yokohama.co.uk/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>08003523077</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>office@northerncommercials.co.uk</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1424,12 +1420,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>McConechy Tyres</t>
+          <t>Dunlop Commercial UK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.mcconechys.co.uk/</t>
+          <t>https://www.dunlop.eu/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1440,24 +1436,24 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1472,48 +1468,40 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Truck Tyre Specialists (TTS)</t>
+          <t>Firestone Commercial UK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.trucktyrespecialists.co.uk/</t>
+          <t>https://www.firestone.eu/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>01934 622626</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Retreading</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>Medium</t>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Large</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15-50</t>
+          <t>50-500+</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>£2M - £10M</t>
+          <t>£10M - £100M+</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>85%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1528,30 +1516,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Big Tyres</t>
+          <t>247 Mobile Truck Tyres</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.bigtyres.co.uk/</t>
+          <t>https://www.247mobiletrucktyres.co.uk/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0115 994 0900</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1584,22 +1564,30 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vacu-Lug Traction Tyres</t>
+          <t>Tyre Assist 365</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.vaculug.co.uk/</t>
+          <t>https://www.tyreassist365.com/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>03332 407592</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G22" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1632,12 +1620,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bond International</t>
+          <t>Kingsway Tyres</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.bondinternational.com/</t>
+          <t>https://www.kingswaytyres.com/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1680,30 +1668,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tyre Assist 365</t>
+          <t>Lodge Tyre Company</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.tyreassist365.com/</t>
+          <t>https://www.lodgetyre.com/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>03332 407592</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1736,30 +1716,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Roadstar Tyres</t>
+          <t>McConechy Tyres</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.roadstartyres.com/</t>
+          <t>https://www.mcconechys.co.uk/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>03921568627</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1772,12 +1744,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>£1.0M - £5.0M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1792,12 +1764,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Tyres247</t>
+          <t>Watling Tyres</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.tyres247.uk/</t>
+          <t>https://www.watlingtyres.co.uk/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1807,12 +1779,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>07463 664769</t>
+          <t>01233359050</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sales@tyres247.uk</t>
+          <t>contact@watlingtyres.co.uk</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1832,12 +1804,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>£1.0M - £5.0M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1852,12 +1824,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TRUCK TYRE SOLUTIONS LTD</t>
+          <t>Hometyre</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.trucktyresolutions.co.uk</t>
+          <t>https://www.hometyre.co.uk/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1867,17 +1839,13 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0121 716 8569</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>itsupport@trucktyresolutions.co.uk</t>
-        </is>
-      </c>
+          <t>0333 444 5454</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout, Retreading</t>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
@@ -1892,7 +1860,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>£1.0M - £5.0M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1900,51 +1868,34 @@
           <t>75%</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>05733614</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Station Road, Rowley Regis, W Midlands, United Kingdom, B65 0LJ</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>20</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TRUCK TYRES 2 U LTD</t>
+          <t>Merityre Commercial</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.trucktyres2u.co.uk</t>
+          <t>https://www.merityre.co.uk/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>097560975609</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Fleet Services</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1957,64 +1908,42 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>£1.0M - £5.0M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>12781618</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C/O Knight Brown Accountants, 3 Crewe Road, Sandbach, Cheshire, United Kingdom, CW11 4NE</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>6</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TRUCK TYRES UK LIMITED</t>
+          <t>Point S UK</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.trucktyresuk.com</t>
+          <t>https://www.point-s.co.uk/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>07831289222</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ts2000ltd@aol.com</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2027,64 +1956,42 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>£1.0M - £5.0M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>SC644925</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Blue Square Offices Ltd, Bath Street, Glasgow, Scotland, G2 4JR</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>7</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>COMMERCIAL TYRE SOLUTIONS LTD</t>
+          <t>First Stop Commercial</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.commercial-tyre-solutions.co.uk</t>
+          <t>https://www.firststop.co.uk/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>03872045548</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>info@commercial-tyre-solutions.co.uk</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" s="3" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2097,42 +2004,32 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>£1.0M - £5.0M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>15143167</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>71-75 Shelton Street, Covent Garden, London, United Kingdom, WC2H 9JQ</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colway Tyres</t>
+          <t>Fleet Tyre Group</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.colway.co.uk/</t>
+          <t>https://www.fleet-tyres.co.uk/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2143,24 +2040,24 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>5-20</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>£500K - £2M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2175,48 +2072,40 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mobile Tyre Fitting UK</t>
+          <t>Fleet Operations</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.mobiletyrefittinguk.co.uk/</t>
+          <t>https://www.fleetoperations.co.uk/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0808 281 5669</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>5-20</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>£500K - £2M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2231,12 +2120,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Essex Tyre Fitters</t>
+          <t>Venson Automotive</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.essextyrefitters.co.uk/</t>
+          <t>https://www.venson.com/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2246,37 +2135,33 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>07858 724 854</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>info@mobiletyresessex.co.uk</t>
-        </is>
-      </c>
+          <t>03300 947 801</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2291,12 +2176,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mid Beds Tyres</t>
+          <t>Truck Tyre Specialists (TTS)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.midbedstyres.co.uk/</t>
+          <t>https://www.trucktyrespecialists.co.uk/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2306,33 +2191,33 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>07860 409600</t>
+          <t>01934 622626</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Retreading</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2347,12 +2232,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CTS Bristol</t>
+          <t>Big Tyres</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.ctsbristolltd.com/</t>
+          <t>https://www.bigtyres.co.uk/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2362,37 +2247,33 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0800 156 0059</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>info@ctsbristolltd.com</t>
-        </is>
-      </c>
+          <t>0115 994 0900</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+          <t>24 Hour Service, Mobile Fitting</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>5-20</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>£500K - £2M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2407,12 +2288,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Manchester Truck Tyres</t>
+          <t>Northern Commercials</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.manchestertrucktyres.co.uk/</t>
+          <t>https://www.northerncommercials.co.uk/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2422,33 +2303,37 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0161 205 1362</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
+          <t>08003523077</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>office@northerncommercials.co.uk</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>5-20</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>£500K - £2M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2463,48 +2348,40 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A2 Tyres</t>
+          <t>Vacu-Lug Traction Tyres</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.a2tyres.co.uk/</t>
+          <t>https://www.vaculug.co.uk/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>01795 475200</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2519,44 +2396,40 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>South West Tyre Services</t>
+          <t>Bond International</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.southwesttyreservices.co.uk/</t>
+          <t>https://www.bondinternational.com/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Emergency Callout</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2571,12 +2444,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Truck Tyre Wholesalers</t>
+          <t>Euro Pool Tyres</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.trucktyrewholesaler.co.uk/</t>
+          <t>https://www.europooltyres.co.uk/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2587,24 +2460,24 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>5-20</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>£500K - £2M</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2619,129 +2492,118 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TRUCK TYRES DIRECT LIMITED</t>
+          <t>Deldo Tyres</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.trucktyresdirect.co.uk</t>
+          <t>https://www.deldo.co.uk/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>01933 623955</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>24 Hour Service, Mobile Fitting, Retreading</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>15105571</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>24 Dalkeith Place, Kettering, England, NN16 0BS</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TRUCK TYRES NATIONAL LTD</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>BFGoodrich Commercial UK</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.bfgoodrich.co.uk/</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>043004470922</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>16707059</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Unit 389 275 New North Road, Islington, London, United Kingdom, N1 7AA</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANGLIA TRUCK TYRE MANAGEMENT LIMITED</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>Kumho Truck UK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.kumhotyre.co.uk/</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>No</t>
@@ -2750,52 +2612,46 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>04183442</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>25</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>T.T.S. TRUCK TYRE SPECIALISTS LIMITED</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>Toyo Truck UK</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.toyo.co.uk/</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>No</t>
@@ -2804,52 +2660,46 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>01379569</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Truck Tyre Specialists Warne Road, Winterstoke Commercial Centre, Weston-Super-Mare, England, BS23 3UU</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>48</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BARTON COMMERCIAL TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>Falken Truck UK</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.falkentyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>No</t>
@@ -2858,52 +2708,46 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>02039874</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Barton Lorry Park, Barton, Richmond, North Yorishire, DL10 6NB</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>40</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P.A. RISK COMMERCIAL TYRE SERVICES LIMITED</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>Giti Truck UK</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.giti.co.uk/</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>No</t>
@@ -2912,52 +2756,46 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>30%</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>04486928</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>12 Station Court, Station Approach, Wickford, Essex, SS11 7AT</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>24</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FLEET TYRE NETWORK LIMITED</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>Triangle Truck UK</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.triangletyre.com/</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>No</t>
@@ -2966,54 +2804,44 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Small-Medium</t>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>5-15</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>£500K - £2000K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>07888473</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Micheldever Station, Winchester, Hampshire, SO21 3AP</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>15</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2U Tyres</t>
+          <t>Linglong Truck UK</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.2utyres.co.uk/</t>
+          <t>https://www.linglong.co.uk/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3024,24 +2852,24 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Small</t>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3056,10 +2884,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TRUCK TYRE FLEET SERVICES LTD</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>Sailun Truck UK</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.sailuntyre.com/</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>No</t>
@@ -3068,200 +2900,214 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Small</t>
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£2M - £10M</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>16262244</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1 Thorncliffe View, Leek, England, ST13 6QB</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TRUCK TYRES 4 U LTD</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>Roadstar Tyres</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.roadstartyres.com/</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>03921568627</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Small</t>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
+        </is>
+      </c>
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£1.0M - £5.0M</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>15543670</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>121 Lark Lane, Liverpool, England, L17 8UR</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>2</v>
-      </c>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TRUCK TYRES (LONDON) LIMITED</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>Tyres247</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.tyres247.uk/</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Small</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>07463 664769</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>sales@tyres247.uk</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£1.0M - £5.0M</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>05853394</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>167 Turners Hill, Cheshunt, Hertfordshire, EN8 9BH</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>20</v>
-      </c>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TRUCK TYRES ONLINE LTD</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
+          <t>TRUCK TYRE SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.trucktyresolutions.co.uk</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Small</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0121 716 8569</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>itsupport@trucktyresolutions.co.uk</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout, Retreading</t>
+        </is>
+      </c>
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£1.0M - £5.0M</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>16049229</t>
+          <t>05733614</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Booth Street Chambers, 32 Booth Street, Ashton-Under-Lyne, Lancashire, England, OL6 7LQ</t>
+          <t>Station Road, Rowley Regis, W Midlands, United Kingdom, B65 0LJ</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -3272,50 +3118,66 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>TRUCK TYRE SUPPLIES UK LIMITED</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
+          <t>TRUCK TYRES UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.trucktyresuk.com</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Small</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>07831289222</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ts2000ltd@aol.com</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£1.0M - £5.0M</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11032022</t>
+          <t>SC644925</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>St Thomas House, 83 Wolverhampton Road, Cannock, Staffordshire, United Kingdom, WS11 1AR</t>
+          <t>Blue Square Offices Ltd, Bath Street, Glasgow, Scotland, G2 4JR</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -3326,50 +3188,66 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ANGLIAN TRUCK TYRE MANAGEMENT CAMBS LIMITED</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
+          <t>COMMERCIAL TYRE SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.commercial-tyre-solutions.co.uk</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Small</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>03872045548</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>info@commercial-tyre-solutions.co.uk</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>15-50</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£1.0M - £5.0M</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>16141864</t>
+          <t>15143167</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
+          <t>71-75 Shelton Street, Covent Garden, London, United Kingdom, WC2H 9JQ</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -3380,64 +3258,70 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ANGLIAN TRUCK TYRE MANAGEMENT NORWICH LIMITED</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
+          <t>Mobile Tyre Fitting UK</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.mobiletyrefittinguk.co.uk/</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0808 281 5669</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>16141882</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ANGLIAN TRUCK TYRE MANAGEMENT SOUTH LIMITED</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>HGV Direct Tyres</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.hgvdirect.co.uk/</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>No</t>
@@ -3448,320 +3332,328 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>13046940</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>6</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A2 TRUCK TYRE LIMITED</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>24hr Mobile Tyres</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.24hrmobiletyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>07932667111</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>mobiletyres24hr@hotmail.co.uk</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>11261015</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Thames House, Roman Square, Sittingbourne, Kent, United Kingdom, ME10 4BJ</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>8</v>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BARON TRUCK TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>Fleetline Tyres</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.fleetlinetyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0121 5652774</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>06833810</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Unit 14, Kettlestring Park Kettlestring Lane, Clifton Moor, York, United Kingdom, YO30 4XF</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>17</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BIRMINGHAM TRUCK TYRE LTD</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>Truck Tyres Direct</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.trucktyresdirect.co.uk/</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>01933 623955</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Retreading</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>08481309</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Kent Space, Suite 2026 6-8 Revenge Road, Chatham, England, ME5 8UD</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>13</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CAR VAN TRUCK TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
+          <t>Truck Tyres 2 U</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.trucktyres2u.co.uk/</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>097560975609</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Fleet Services</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>08035616</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>29 Whitegate Drive Whitegate Drive, Blackpool, England, FY3 9AA</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>14</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DRS MOBILE TRUCK TYRES SERVICE LTD</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>Manchester Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.manchestertrucktyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0161 205 1362</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>16139729</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>62 Walbrook Road, Derby, England, DE23 8RY</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>2</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HARRY'S TRUCK TYRES LTD</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
+          <t>London Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.londontrucktyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>No</t>
@@ -3772,50 +3664,44 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>16009864</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>200 Knolton Way, Slough, Berkshire, United Kingdom, SL2 5RS</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SYLLA TRUCK TYRES LTD</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
+          <t>Colway Tyres</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.colway.co.uk/</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>No</t>
@@ -3826,50 +3712,44 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>13847848</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Flat 69 Kelvedon House, Guildford Road, London, England, SW8 2DW</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>4</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TA9 TRUCK TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>King Retreads</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.kingretreads.co.uk/</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>No</t>
@@ -3880,104 +3760,100 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>16043526</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Goodwood House, Blackbrook Park Avenue, Taunton, Somerset, United Kingdom, TA1 2PX</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>2</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>247 TRUCK TYRES LTD</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>Treadsetters</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.treadsetters.co.uk/</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>01952 684 168</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>16948484</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>599 London Road, Reading, United Kingdom, RG6 1AT</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>COMMERCIAL TYRES LTD</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>Truck Tyre Wholesalers</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.trucktyrewholesaler.co.uk/</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>No</t>
@@ -3988,50 +3864,44 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>10615294</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Vantage Quay, 5 Brewer Street, Manchester, England, M1 2ER</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>9</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>COMMERCIAL TYRE SERVICES (BRISTOL) LIMITED</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
+          <t>Aspen Automotive</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.aspenautomotive.co.uk/</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>No</t>
@@ -4042,50 +3912,44 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>11334504</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Unit 5 Willment Way, Bristol, England, BS11 8DJ</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>8</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>COMMERCIAL TYRES OFF HIGHWAY LIMITED</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
+          <t>Malvern Tyres Wholesale</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.malverntyreswholesale.co.uk/</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>No</t>
@@ -4096,317 +3960,321 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>08555956</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Tructyre House Princesway North, Team Valley, Gateshead, England, NE11 0NF</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>13</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>COMMERCIAL TYRE SUPPLIES LTD</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
+          <t>CTS Bristol</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.ctsbristolltd.com/</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0800 156 0059</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>info@ctsbristolltd.com</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Fleet Services, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-20</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2M</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>07754686</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>6a Cissplatt Lane,, Keelby,, DN41 8HU</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>15</v>
-      </c>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AM COMMERCIAL TYRE’S LIMITED</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
+          <t>A2 Tyres</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.a2tyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>01795 475200</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>SC846604</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>5 Cables Wynd House, Edinburgh, Scotland, EH6 6DF</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ASHFORD COMMERCIAL TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>South West Tyre Services</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.southwesttyreservices.co.uk/</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>07322542</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>57 Kingsmead Avenue, Sunbury On Thames, Middlesex, TW16 5HL</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>16</v>
-      </c>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FAST FIT COMMERCIAL TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
+          <t>Essex Tyre Fitters</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.essextyrefitters.co.uk/</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>07858 724 854</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>info@mobiletyresessex.co.uk</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>15947304</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>6 St. Georges Square, Portsmouth, England, PO1 3EY</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>2</v>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>J.S COMMERCIAL TYRES LIMITED</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>Mid Beds Tyres</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.midbedstyres.co.uk/</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>07860 409600</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>24 Hour Service, Mobile Fitting, Emergency Callout</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>16100479</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>23 Turnberry Court Bentley, Doncaster, South Yorkshire, England, DN5 0UL</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>2</v>
-      </c>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Companies House</t>
+          <t>Verified Manual Entry</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WESSEX COMMERCIAL TYRES LIMITED</t>
+          <t>TRUCK TYRES NATIONAL LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -4420,36 +4288,36 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>06686704</t>
+          <t>16707059</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>139 Engineer Road, West Wilts Trading Estate, Westbury, Wiltshire, England, BA13 4JW</t>
+          <t>Unit 389 275 New North Road, Islington, London, United Kingdom, N1 7AA</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -4460,7 +4328,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C &amp; G MOBILE TRUCK AND TRAILER REPAIRS LTD</t>
+          <t>ANGLIA TRUCK TYRE MANAGEMENT LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -4474,36 +4342,36 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>10%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>11626516</t>
+          <t>04183442</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>35 Kenilworth Drive, Padgate, Warrington, England, WA1 3JT</t>
+          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -4514,7 +4382,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MOBILE TRUCK &amp; COACH REPAIRS LTD</t>
+          <t>T.T.S. TRUCK TYRE SPECIALISTS LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -4528,36 +4396,36 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>15843978</t>
+          <t>01379569</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>1st Floor, The Smithyside, 7 Bell Villas, Ponteland, Newcastle Upon Tyne, United Kingdom, NE20 9BD</t>
+          <t>Truck Tyre Specialists Warne Road, Winterstoke Commercial Centre, Weston-Super-Mare, England, BS23 3UU</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -4568,7 +4436,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MOBILE TRUCK &amp; TRAILER LIMITED</t>
+          <t>BARTON COMMERCIAL TYRES LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -4582,36 +4450,36 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>05743475</t>
+          <t>02039874</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>C/O Stem Accountants Limited, Office 1, The Hive St. James Square, Grimsby, North East Lincolnshire, United Kingdom, DN31 1EP</t>
+          <t>Barton Lorry Park, Barton, Richmond, North Yorishire, DL10 6NB</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
@@ -4622,7 +4490,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FLEET TYRES DIRECT LIMITED</t>
+          <t>P.A. RISK COMMERCIAL TYRE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
@@ -4636,45 +4504,4827 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Small-Medium</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>5-15</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>£100K - £500K</t>
+          <t>£500K - £2000K</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>04486928</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>12 Station Court, Station Approach, Wickford, Essex, SS11 7AT</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>24</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FLEET TYRE NETWORK LIMITED</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Small-Medium</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>5-15</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>£500K - £2000K</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>07888473</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Micheldever Station, Winchester, Hampshire, SO21 3AP</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>15</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Emergency Tyres UK</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.emergencytyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Onsite Tyres</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.onsitetyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Birmingham Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.birminghamtrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Glasgow Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.glasgowtrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Leeds Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.leedstrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Bristol Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.bristoltrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Newcastle Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.newcastletrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sheffield Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.sheffieldtrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Liverpool Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.liverpooltrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Edinburgh Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.edinburghtrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Cardiff Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.cardifftrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Nottingham Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.nottinghamtrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Southampton Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.southamptontrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Encore Tyres</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.encoretyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2U Tyres</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.2utyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ashford Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.ashfordcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wessex Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.wessexcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Kent Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.kentcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Surrey Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.surreycommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sussex Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.sussexcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Hampshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.hampshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Devon Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.devoncommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Cornwall Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.cornwallcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Dorset Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.dorsetcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Wiltshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.wiltshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Somerset Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.somersetcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Gloucestershire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.gloucestershirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oxfordshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.oxfordshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Berkshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.berkshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Buckinghamshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.buckinghamshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hertfordshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.hertfordshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bedfordshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.bedfordshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Cambridgeshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.cambridgeshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Norfolk Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.norfolkcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Suffolk Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.suffolkcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Essex Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.essexcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Lincolnshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.lincolnshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Leicestershire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.leicestershirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Northamptonshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.northamptonshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Warwickshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.warwickshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>West Midlands Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.westmidlandscommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Staffordshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.staffordshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Derbyshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.derbyshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Nottinghamshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.nottinghamshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>South Yorkshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.southyorkshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>West Yorkshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.westyorkshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>North Yorkshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.northyorkshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>East Yorkshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.eastyorkshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Lancashire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.lancashirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Greater Manchester Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.greatermanchestercommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Merseyside Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.merseysidecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Cheshire Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.cheshirecommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Cumbria Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.cumbriacommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Northumberland Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.northumberlandcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>County Durham Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.countydurhamcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tyne and Wear Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.tyneandwearcommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Central Scotland Tyres</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.centralscotlandtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Highland Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.highlandtrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Aberdeen Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.aberdeentrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Dundee Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.dundeetrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Inverness Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.invernesstrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>South Wales Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.southwalestrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>North Wales Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.northwalestrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Swansea Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.swanseatrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Newport Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.newporttrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Belfast Truck Tyres</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.belfasttrucktyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Northern Ireland Commercial Tyres</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.nicommercialtyres.co.uk/</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>Verified Manual Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>TRUCK TYRE FLEET SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>16262244</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>1 Thorncliffe View, Leek, England, ST13 6QB</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>TRUCK TYRES 4 U LTD</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>15543670</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>121 Lark Lane, Liverpool, England, L17 8UR</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>TRUCK TYRES (LONDON) LIMITED</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
           <t>20%</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>05853394</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>167 Turners Hill, Cheshunt, Hertfordshire, EN8 9BH</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>20</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>TRUCK TYRES ONLINE LTD</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>16049229</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Booth Street Chambers, 32 Booth Street, Ashton-Under-Lyne, Lancashire, England, OL6 7LQ</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>TRUCK TYRE SUPPLIES UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>11032022</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>St Thomas House, 83 Wolverhampton Road, Cannock, Staffordshire, United Kingdom, WS11 1AR</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>9</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ANGLIAN TRUCK TYRE MANAGEMENT CAMBS LIMITED</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>16141864</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>2</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ANGLIAN TRUCK TYRE MANAGEMENT NORWICH LIMITED</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>16141882</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ANGLIAN TRUCK TYRE MANAGEMENT SOUTH LIMITED</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>13046940</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>37-41 Holywells Road, Ipswich, Suffolk, United Kingdom, IP3 0DL</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>6</v>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>A2 TRUCK TYRE LIMITED</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>11261015</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Thames House, Roman Square, Sittingbourne, Kent, United Kingdom, ME10 4BJ</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>8</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BARON TRUCK TYRES LIMITED</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>06833810</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Unit 14, Kettlestring Park Kettlestring Lane, Clifton Moor, York, United Kingdom, YO30 4XF</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>17</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>BIRMINGHAM TRUCK TYRE LTD</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>08481309</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Kent Space, Suite 2026 6-8 Revenge Road, Chatham, England, ME5 8UD</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>13</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>CAR VAN TRUCK TYRES LIMITED</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>08035616</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>29 Whitegate Drive Whitegate Drive, Blackpool, England, FY3 9AA</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>14</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>DRS MOBILE TRUCK TYRES SERVICE LTD</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>16139729</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>62 Walbrook Road, Derby, England, DE23 8RY</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>HARRY'S TRUCK TYRES LTD</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>16009864</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>200 Knolton Way, Slough, Berkshire, United Kingdom, SL2 5RS</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>SYLLA TRUCK TYRES LTD</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>13847848</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Flat 69 Kelvedon House, Guildford Road, London, England, SW8 2DW</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>4</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>TA9 TRUCK TYRES LIMITED</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>16043526</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Goodwood House, Blackbrook Park Avenue, Taunton, Somerset, United Kingdom, TA1 2PX</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>2</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>247 TRUCK TYRES LTD</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>16948484</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>599 London Road, Reading, United Kingdom, RG6 1AT</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>COMMERCIAL TYRES LTD</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>10615294</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Vantage Quay, 5 Brewer Street, Manchester, England, M1 2ER</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>9</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>COMMERCIAL TYRE SERVICES (BRISTOL) LIMITED</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>11334504</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Unit 5 Willment Way, Bristol, England, BS11 8DJ</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>8</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>COMMERCIAL TYRES OFF HIGHWAY LIMITED</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>08555956</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Tructyre House Princesway North, Team Valley, Gateshead, England, NE11 0NF</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>13</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>COMMERCIAL TYRE SUPPLIES LTD</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>07754686</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>6a Cissplatt Lane,, Keelby,, DN41 8HU</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>15</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>AM COMMERCIAL TYRE’S LIMITED</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>SC846604</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>5 Cables Wynd House, Edinburgh, Scotland, EH6 6DF</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>FAST FIT COMMERCIAL TYRES LIMITED</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>15947304</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>6 St. Georges Square, Portsmouth, England, PO1 3EY</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>J.S COMMERCIAL TYRES LIMITED</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>16100479</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>23 Turnberry Court Bentley, Doncaster, South Yorkshire, England, DN5 0UL</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>C &amp; G MOBILE TRUCK AND TRAILER REPAIRS LTD</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>11626516</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>35 Kenilworth Drive, Padgate, Warrington, England, WA1 3JT</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>8</v>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>MOBILE TRUCK &amp; COACH REPAIRS LTD</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>15843978</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>1st Floor, The Smithyside, 7 Bell Villas, Ponteland, Newcastle Upon Tyne, United Kingdom, NE20 9BD</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>2</v>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MOBILE TRUCK &amp; TRAILER LIMITED</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>05743475</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>C/O Stem Accountants Limited, Office 1, The Hive St. James Square, Grimsby, North East Lincolnshire, United Kingdom, DN31 1EP</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>20</v>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>Companies House</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>FLEET TYRES DIRECT LIMITED</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>£100K - £500K</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>09289284</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L173" t="inlineStr">
         <is>
           <t>Unit 55 Brunel Road, Bedford, MK41 9TJ</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="M173" t="n">
         <v>12</v>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N173" t="inlineStr">
         <is>
           <t>Companies House</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N77"/>
+  <autoFilter ref="A1:N173"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>